--- a/Covid_19_Dataset_and_References/References/100.xlsx
+++ b/Covid_19_Dataset_and_References/References/100.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="55">
   <si>
     <t>Doi</t>
   </si>
@@ -185,6 +185,30 @@
   </si>
   <si>
     <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,   Laura%Brischigliaro%NULL%2,   Laura%Brischigliaro%NULL%0,   Tommaso%Scquizzato%NULL%2,   Tommaso%Scquizzato%NULL%0,   Andrea%Favaretto%NULL%2,   Andrea%Favaretto%NULL%0,   Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,    Giuseppe Maria%Sechi%NULL%2,    Giuseppe Maria%Sechi%NULL%0,    Claudio%Mare%NULL%1,    Fabrizio%Canevari%NULL%1,    Antonella%Brancaglione%NULL%1,    Roberto%Primi%NULL%1,    Catherine%Klersy%NULL%1,    Alessandra%Palo%NULL%2,    Alessandra%Palo%NULL%0,    Enrico%Contri%NULL%1,    Vincenza%Ronchi%NULL%2,    Vincenza%Ronchi%NULL%0,    Giorgio%Beretta%NULL%1,    Francesca%Reali%NULL%1,    Pierpaolo%Parogni%NULL%1,    Fabio%Facchin%NULL%1,    Ugo%Rizzi%NULL%1,    Daniele%Bussi%NULL%1,    Simone%Ruggeri%NULL%1,    Luigi%Oltrona Visconti%NULL%1,    Simone%Savastano%s.savastano@smatteo.pv.it%1,    Sara%Compagnoni%NULL%3,    Sara%Compagnoni%NULL%0,    Sara%Compagnoni%NULL%0,    Rosa%Fracchia%NULL%1,    Antonio%Cuzzoli%NULL%1,    Andrea%Pagliosa%NULL%1,    Guido%Matiz%NULL%1,    Alessandra%Russo%NULL%1,    Andrea Lorenzo%Vecchi%NULL%1,    Cecilia%Fantoni%NULL%1,    Cristian%Fava%NULL%1,    Cinzia%Franzosi%NULL%1,    Claudio%Vimercati%NULL%1,    Dario%Franchi%NULL%1,    Enrico%Storti%NULL%1,    Erika%Taravelli%NULL%1,    Fulvio%Giovenzana%NULL%1,    Giovanni%Buetto%NULL%1,    Guido%Garzena%NULL%1,    Giorgio Antonio%Iotti%NULL%1,    Guido Francesco%Villa%NULL%1,    Marco%Botteri%NULL%1,    Salvatore Ivan%Caico%NULL%1,    Irene Raimondi%Cominesi%NULL%1,    Livio%Carnevale%NULL%1,    Matteo%Caresani%NULL%1,    Mario%Luppi%NULL%1,    Maurizio%Migliori%NULL%1,    Paola%Centineo%NULL%1,    Paola%Genoni%NULL%1,    Roberta%Bertona%NULL%1,    Roberto%De Ponti%NULL%1,    Riccardo%Osti%NULL%1,    Stefano%Buratti%NULL%1,    Gian Battista%Danzi%NULL%1,    Arianna%Marioni%NULL%1,    Antonella%De Pirro%NULL%1,    Simone%Molinari%NULL%1,    Vito%Sgromo%NULL%1,    Valeria%Musella%NULL%1,    Martina%Paglino%NULL%1,    Francesco%Mojoli%NULL%1,    Bruno%Lusona%NULL%1,    Michele%Pagani%NULL%1,    Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,    Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,    Jiming%Liu%jiming@comp.hkbu.edu.hk%1,    Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,    Elizabeth A.%Lancet%NULL%1,    Michael D.%Weiden%NULL%1,    Mayris P.%Webber%NULL%1,    Rachel%Zeig-Owens%NULL%1,    Charles B.%Hall%NULL%1,    David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,    Laura%Brischigliaro%NULL%2,    Laura%Brischigliaro%NULL%0,    Tommaso%Scquizzato%NULL%2,    Tommaso%Scquizzato%NULL%0,    Andrea%Favaretto%NULL%2,    Andrea%Favaretto%NULL%0,    Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
   </si>
 </sst>
 </file>
@@ -490,6 +514,9 @@
       <c r="H1" t="s">
         <v>17</v>
       </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -505,7 +532,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -515,6 +542,9 @@
       </c>
       <c r="H2" t="s">
         <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -531,7 +561,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -541,6 +571,9 @@
       </c>
       <c r="H3" t="s">
         <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -557,7 +590,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -567,6 +600,9 @@
       </c>
       <c r="H4" t="s">
         <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -583,7 +619,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -593,6 +629,9 @@
       </c>
       <c r="H5" t="s">
         <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -619,6 +658,9 @@
       </c>
       <c r="H6" t="s">
         <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/100.xlsx
+++ b/Covid_19_Dataset_and_References/References/100.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="67">
   <si>
     <t>Doi</t>
   </si>
@@ -209,6 +209,42 @@
   </si>
   <si>
     <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,     Giuseppe Maria%Sechi%NULL%2,     Giuseppe Maria%Sechi%NULL%0,     Claudio%Mare%NULL%1,     Fabrizio%Canevari%NULL%1,     Antonella%Brancaglione%NULL%1,     Roberto%Primi%NULL%1,     Catherine%Klersy%NULL%1,     Alessandra%Palo%NULL%2,     Alessandra%Palo%NULL%0,     Enrico%Contri%NULL%1,     Vincenza%Ronchi%NULL%2,     Vincenza%Ronchi%NULL%0,     Giorgio%Beretta%NULL%1,     Francesca%Reali%NULL%1,     Pierpaolo%Parogni%NULL%1,     Fabio%Facchin%NULL%1,     Ugo%Rizzi%NULL%1,     Daniele%Bussi%NULL%1,     Simone%Ruggeri%NULL%1,     Luigi%Oltrona Visconti%NULL%1,     Simone%Savastano%s.savastano@smatteo.pv.it%1,     Sara%Compagnoni%NULL%3,     Sara%Compagnoni%NULL%0,     Sara%Compagnoni%NULL%0,     Rosa%Fracchia%NULL%1,     Antonio%Cuzzoli%NULL%1,     Andrea%Pagliosa%NULL%1,     Guido%Matiz%NULL%1,     Alessandra%Russo%NULL%1,     Andrea Lorenzo%Vecchi%NULL%1,     Cecilia%Fantoni%NULL%1,     Cristian%Fava%NULL%1,     Cinzia%Franzosi%NULL%1,     Claudio%Vimercati%NULL%1,     Dario%Franchi%NULL%1,     Enrico%Storti%NULL%1,     Erika%Taravelli%NULL%1,     Fulvio%Giovenzana%NULL%1,     Giovanni%Buetto%NULL%1,     Guido%Garzena%NULL%1,     Giorgio Antonio%Iotti%NULL%1,     Guido Francesco%Villa%NULL%1,     Marco%Botteri%NULL%1,     Salvatore Ivan%Caico%NULL%1,     Irene Raimondi%Cominesi%NULL%1,     Livio%Carnevale%NULL%1,     Matteo%Caresani%NULL%1,     Mario%Luppi%NULL%1,     Maurizio%Migliori%NULL%1,     Paola%Centineo%NULL%1,     Paola%Genoni%NULL%1,     Roberta%Bertona%NULL%1,     Roberto%De Ponti%NULL%1,     Riccardo%Osti%NULL%1,     Stefano%Buratti%NULL%1,     Gian Battista%Danzi%NULL%1,     Arianna%Marioni%NULL%1,     Antonella%De Pirro%NULL%1,     Simone%Molinari%NULL%1,     Vito%Sgromo%NULL%1,     Valeria%Musella%NULL%1,     Martina%Paglino%NULL%1,     Francesco%Mojoli%NULL%1,     Bruno%Lusona%NULL%1,     Michele%Pagani%NULL%1,     Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,     Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,     Jiming%Liu%jiming@comp.hkbu.edu.hk%1,     Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,     Elizabeth A.%Lancet%NULL%1,     Michael D.%Weiden%NULL%1,     Mayris P.%Webber%NULL%1,     Rachel%Zeig-Owens%NULL%1,     Charles B.%Hall%NULL%1,     David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,     Laura%Brischigliaro%NULL%2,     Laura%Brischigliaro%NULL%0,     Tommaso%Scquizzato%NULL%2,     Tommaso%Scquizzato%NULL%0,     Andrea%Favaretto%NULL%2,     Andrea%Favaretto%NULL%0,     Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,      Giuseppe Maria%Sechi%NULL%2,      Giuseppe Maria%Sechi%NULL%0,      Claudio%Mare%NULL%1,      Fabrizio%Canevari%NULL%1,      Antonella%Brancaglione%NULL%1,      Roberto%Primi%NULL%1,      Catherine%Klersy%NULL%1,      Alessandra%Palo%NULL%2,      Alessandra%Palo%NULL%0,      Enrico%Contri%NULL%1,      Vincenza%Ronchi%NULL%2,      Vincenza%Ronchi%NULL%0,      Giorgio%Beretta%NULL%1,      Francesca%Reali%NULL%1,      Pierpaolo%Parogni%NULL%1,      Fabio%Facchin%NULL%1,      Ugo%Rizzi%NULL%1,      Daniele%Bussi%NULL%1,      Simone%Ruggeri%NULL%1,      Luigi%Oltrona Visconti%NULL%1,      Simone%Savastano%s.savastano@smatteo.pv.it%1,      Sara%Compagnoni%NULL%3,      Sara%Compagnoni%NULL%0,      Sara%Compagnoni%NULL%0,      Rosa%Fracchia%NULL%1,      Antonio%Cuzzoli%NULL%1,      Andrea%Pagliosa%NULL%1,      Guido%Matiz%NULL%1,      Alessandra%Russo%NULL%1,      Andrea Lorenzo%Vecchi%NULL%1,      Cecilia%Fantoni%NULL%1,      Cristian%Fava%NULL%1,      Cinzia%Franzosi%NULL%1,      Claudio%Vimercati%NULL%1,      Dario%Franchi%NULL%1,      Enrico%Storti%NULL%1,      Erika%Taravelli%NULL%1,      Fulvio%Giovenzana%NULL%1,      Giovanni%Buetto%NULL%1,      Guido%Garzena%NULL%1,      Giorgio Antonio%Iotti%NULL%1,      Guido Francesco%Villa%NULL%1,      Marco%Botteri%NULL%1,      Salvatore Ivan%Caico%NULL%1,      Irene Raimondi%Cominesi%NULL%1,      Livio%Carnevale%NULL%1,      Matteo%Caresani%NULL%1,      Mario%Luppi%NULL%1,      Maurizio%Migliori%NULL%1,      Paola%Centineo%NULL%1,      Paola%Genoni%NULL%1,      Roberta%Bertona%NULL%1,      Roberto%De Ponti%NULL%1,      Riccardo%Osti%NULL%1,      Stefano%Buratti%NULL%1,      Gian Battista%Danzi%NULL%1,      Arianna%Marioni%NULL%1,      Antonella%De Pirro%NULL%1,      Simone%Molinari%NULL%1,      Vito%Sgromo%NULL%1,      Valeria%Musella%NULL%1,      Martina%Paglino%NULL%1,      Francesco%Mojoli%NULL%1,      Bruno%Lusona%NULL%1,      Michele%Pagani%NULL%1,      Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,      Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,      Jiming%Liu%jiming@comp.hkbu.edu.hk%1,      Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,      Elizabeth A.%Lancet%NULL%1,      Michael D.%Weiden%NULL%1,      Mayris P.%Webber%NULL%1,      Rachel%Zeig-Owens%NULL%1,      Charles B.%Hall%NULL%1,      David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,      Laura%Brischigliaro%NULL%2,      Laura%Brischigliaro%NULL%0,      Tommaso%Scquizzato%NULL%2,      Tommaso%Scquizzato%NULL%0,      Andrea%Favaretto%NULL%2,      Andrea%Favaretto%NULL%0,      Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,       Giuseppe Maria%Sechi%NULL%2,       Giuseppe Maria%Sechi%NULL%0,       Claudio%Mare%NULL%1,       Fabrizio%Canevari%NULL%1,       Antonella%Brancaglione%NULL%1,       Roberto%Primi%NULL%1,       Catherine%Klersy%NULL%1,       Alessandra%Palo%NULL%2,       Alessandra%Palo%NULL%0,       Enrico%Contri%NULL%1,       Vincenza%Ronchi%NULL%2,       Vincenza%Ronchi%NULL%0,       Giorgio%Beretta%NULL%1,       Francesca%Reali%NULL%1,       Pierpaolo%Parogni%NULL%1,       Fabio%Facchin%NULL%1,       Ugo%Rizzi%NULL%1,       Daniele%Bussi%NULL%1,       Simone%Ruggeri%NULL%1,       Luigi%Oltrona Visconti%NULL%1,       Simone%Savastano%s.savastano@smatteo.pv.it%1,       Sara%Compagnoni%NULL%3,       Sara%Compagnoni%NULL%0,       Sara%Compagnoni%NULL%0,       Rosa%Fracchia%NULL%1,       Antonio%Cuzzoli%NULL%1,       Andrea%Pagliosa%NULL%1,       Guido%Matiz%NULL%1,       Alessandra%Russo%NULL%1,       Andrea Lorenzo%Vecchi%NULL%1,       Cecilia%Fantoni%NULL%1,       Cristian%Fava%NULL%1,       Cinzia%Franzosi%NULL%1,       Claudio%Vimercati%NULL%1,       Dario%Franchi%NULL%1,       Enrico%Storti%NULL%1,       Erika%Taravelli%NULL%1,       Fulvio%Giovenzana%NULL%1,       Giovanni%Buetto%NULL%1,       Guido%Garzena%NULL%1,       Giorgio Antonio%Iotti%NULL%1,       Guido Francesco%Villa%NULL%1,       Marco%Botteri%NULL%1,       Salvatore Ivan%Caico%NULL%1,       Irene Raimondi%Cominesi%NULL%1,       Livio%Carnevale%NULL%1,       Matteo%Caresani%NULL%1,       Mario%Luppi%NULL%1,       Maurizio%Migliori%NULL%1,       Paola%Centineo%NULL%1,       Paola%Genoni%NULL%1,       Roberta%Bertona%NULL%1,       Roberto%De Ponti%NULL%1,       Riccardo%Osti%NULL%1,       Stefano%Buratti%NULL%1,       Gian Battista%Danzi%NULL%1,       Arianna%Marioni%NULL%1,       Antonella%De Pirro%NULL%1,       Simone%Molinari%NULL%1,       Vito%Sgromo%NULL%1,       Valeria%Musella%NULL%1,       Martina%Paglino%NULL%1,       Francesco%Mojoli%NULL%1,       Bruno%Lusona%NULL%1,       Michele%Pagani%NULL%1,       Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,       Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,       Jiming%Liu%jiming@comp.hkbu.edu.hk%1,       Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,       Elizabeth A.%Lancet%NULL%1,       Michael D.%Weiden%NULL%1,       Mayris P.%Webber%NULL%1,       Rachel%Zeig-Owens%NULL%1,       Charles B.%Hall%NULL%1,       David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,       Laura%Brischigliaro%NULL%2,       Laura%Brischigliaro%NULL%0,       Tommaso%Scquizzato%NULL%2,       Tommaso%Scquizzato%NULL%0,       Andrea%Favaretto%NULL%2,       Andrea%Favaretto%NULL%0,       Andrea%Spagna%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -532,7 +568,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -561,7 +597,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -590,7 +626,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -619,7 +655,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/100.xlsx
+++ b/Covid_19_Dataset_and_References/References/100.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="80">
   <si>
     <t>Doi</t>
   </si>
@@ -245,6 +245,45 @@
   </si>
   <si>
     <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,       Laura%Brischigliaro%NULL%2,       Laura%Brischigliaro%NULL%0,       Tommaso%Scquizzato%NULL%2,       Tommaso%Scquizzato%NULL%0,       Andrea%Favaretto%NULL%2,       Andrea%Favaretto%NULL%0,       Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,        Giuseppe Maria%Sechi%NULL%2,        Giuseppe Maria%Sechi%NULL%0,        Claudio%Mare%NULL%1,        Fabrizio%Canevari%NULL%1,        Antonella%Brancaglione%NULL%1,        Roberto%Primi%NULL%1,        Catherine%Klersy%NULL%1,        Alessandra%Palo%NULL%2,        Alessandra%Palo%NULL%0,        Enrico%Contri%NULL%1,        Vincenza%Ronchi%NULL%2,        Vincenza%Ronchi%NULL%0,        Giorgio%Beretta%NULL%1,        Francesca%Reali%NULL%1,        Pierpaolo%Parogni%NULL%1,        Fabio%Facchin%NULL%1,        Ugo%Rizzi%NULL%1,        Daniele%Bussi%NULL%1,        Simone%Ruggeri%NULL%1,        Luigi%Oltrona Visconti%NULL%1,        Simone%Savastano%s.savastano@smatteo.pv.it%1,        Sara%Compagnoni%NULL%3,        Sara%Compagnoni%NULL%0,        Sara%Compagnoni%NULL%0,        Rosa%Fracchia%NULL%1,        Antonio%Cuzzoli%NULL%1,        Andrea%Pagliosa%NULL%1,        Guido%Matiz%NULL%1,        Alessandra%Russo%NULL%1,        Andrea Lorenzo%Vecchi%NULL%1,        Cecilia%Fantoni%NULL%1,        Cristian%Fava%NULL%1,        Cinzia%Franzosi%NULL%1,        Claudio%Vimercati%NULL%1,        Dario%Franchi%NULL%1,        Enrico%Storti%NULL%1,        Erika%Taravelli%NULL%1,        Fulvio%Giovenzana%NULL%1,        Giovanni%Buetto%NULL%1,        Guido%Garzena%NULL%1,        Giorgio Antonio%Iotti%NULL%1,        Guido Francesco%Villa%NULL%1,        Marco%Botteri%NULL%1,        Salvatore Ivan%Caico%NULL%1,        Irene Raimondi%Cominesi%NULL%1,        Livio%Carnevale%NULL%1,        Matteo%Caresani%NULL%1,        Mario%Luppi%NULL%1,        Maurizio%Migliori%NULL%1,        Paola%Centineo%NULL%1,        Paola%Genoni%NULL%1,        Roberta%Bertona%NULL%1,        Roberto%De Ponti%NULL%1,        Riccardo%Osti%NULL%1,        Stefano%Buratti%NULL%1,        Gian Battista%Danzi%NULL%1,        Arianna%Marioni%NULL%1,        Antonella%De Pirro%NULL%1,        Simone%Molinari%NULL%1,        Vito%Sgromo%NULL%1,        Valeria%Musella%NULL%1,        Martina%Paglino%NULL%1,        Francesco%Mojoli%NULL%1,        Bruno%Lusona%NULL%1,        Michele%Pagani%NULL%1,        Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,        Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,        Jiming%Liu%jiming@comp.hkbu.edu.hk%1,        Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,        Elizabeth A.%Lancet%NULL%1,        Michael D.%Weiden%NULL%1,        Mayris P.%Webber%NULL%1,        Rachel%Zeig-Owens%NULL%1,        Charles B.%Hall%NULL%1,        David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,        Laura%Brischigliaro%NULL%2,        Laura%Brischigliaro%NULL%0,        Tommaso%Scquizzato%NULL%2,        Tommaso%Scquizzato%NULL%0,        Andrea%Favaretto%NULL%2,        Andrea%Favaretto%NULL%0,        Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Prevalence of COVID-19 in Out-of-Hospital Cardiac Arrest"</t>
+  </si>
+  <si>
+    <t>[Michael R.%Sayre%xref no email%1, Leslie M.%Barnard%xref no email%1, Catherine R.%Counts%xref no email%1, Christopher J.%Drucker%xref no email%1, Peter J.%Kudenchuk%xref no email%1, Thomas D.%Rea%xref no email%1, Mickey S.%Eisenberg%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,         Giuseppe Maria%Sechi%NULL%2,         Giuseppe Maria%Sechi%NULL%0,         Claudio%Mare%NULL%1,         Fabrizio%Canevari%NULL%1,         Antonella%Brancaglione%NULL%1,         Roberto%Primi%NULL%1,         Catherine%Klersy%NULL%1,         Alessandra%Palo%NULL%2,         Alessandra%Palo%NULL%0,         Enrico%Contri%NULL%1,         Vincenza%Ronchi%NULL%2,         Vincenza%Ronchi%NULL%0,         Giorgio%Beretta%NULL%1,         Francesca%Reali%NULL%1,         Pierpaolo%Parogni%NULL%1,         Fabio%Facchin%NULL%1,         Ugo%Rizzi%NULL%1,         Daniele%Bussi%NULL%1,         Simone%Ruggeri%NULL%1,         Luigi%Oltrona Visconti%NULL%1,         Simone%Savastano%s.savastano@smatteo.pv.it%1,         Sara%Compagnoni%NULL%3,         Sara%Compagnoni%NULL%0,         Sara%Compagnoni%NULL%0,         Rosa%Fracchia%NULL%1,         Antonio%Cuzzoli%NULL%1,         Andrea%Pagliosa%NULL%1,         Guido%Matiz%NULL%1,         Alessandra%Russo%NULL%1,         Andrea Lorenzo%Vecchi%NULL%1,         Cecilia%Fantoni%NULL%1,         Cristian%Fava%NULL%1,         Cinzia%Franzosi%NULL%1,         Claudio%Vimercati%NULL%1,         Dario%Franchi%NULL%1,         Enrico%Storti%NULL%1,         Erika%Taravelli%NULL%1,         Fulvio%Giovenzana%NULL%1,         Giovanni%Buetto%NULL%1,         Guido%Garzena%NULL%1,         Giorgio Antonio%Iotti%NULL%1,         Guido Francesco%Villa%NULL%1,         Marco%Botteri%NULL%1,         Salvatore Ivan%Caico%NULL%1,         Irene Raimondi%Cominesi%NULL%1,         Livio%Carnevale%NULL%1,         Matteo%Caresani%NULL%1,         Mario%Luppi%NULL%1,         Maurizio%Migliori%NULL%1,         Paola%Centineo%NULL%1,         Paola%Genoni%NULL%1,         Roberta%Bertona%NULL%1,         Roberto%De Ponti%NULL%1,         Riccardo%Osti%NULL%1,         Stefano%Buratti%NULL%1,         Gian Battista%Danzi%NULL%1,         Arianna%Marioni%NULL%1,         Antonella%De Pirro%NULL%1,         Simone%Molinari%NULL%1,         Vito%Sgromo%NULL%1,         Valeria%Musella%NULL%1,         Martina%Paglino%NULL%1,         Francesco%Mojoli%NULL%1,         Bruno%Lusona%NULL%1,         Michele%Pagani%NULL%1,         Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,         Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,         Jiming%Liu%jiming@comp.hkbu.edu.hk%1,         Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,         Elizabeth A.%Lancet%NULL%1,         Michael D.%Weiden%NULL%1,         Mayris P.%Webber%NULL%1,         Rachel%Zeig-Owens%NULL%1,         Charles B.%Hall%NULL%1,         David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,         Laura%Brischigliaro%NULL%2,         Laura%Brischigliaro%NULL%0,         Tommaso%Scquizzato%NULL%2,         Tommaso%Scquizzato%NULL%0,         Andrea%Favaretto%NULL%2,         Andrea%Favaretto%NULL%0,         Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael R.%Sayre%xref no email%1,  Leslie M.%Barnard%xref no email%1,  Catherine R.%Counts%xref no email%1,  Christopher J.%Drucker%xref no email%1,  Peter J.%Kudenchuk%xref no email%1,  Thomas D.%Rea%xref no email%1,  Mickey S.%Eisenberg%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -568,7 +607,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -597,7 +636,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -626,7 +665,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -655,7 +694,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -678,22 +717,22 @@
         <v>44047.0</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
         <v>35</v>

--- a/Covid_19_Dataset_and_References/References/100.xlsx
+++ b/Covid_19_Dataset_and_References/References/100.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="90">
   <si>
     <t>Doi</t>
   </si>
@@ -284,6 +284,36 @@
   </si>
   <si>
     <t>[Michael R.%Sayre%xref no email%1,  Leslie M.%Barnard%xref no email%1,  Catherine R.%Counts%xref no email%1,  Christopher J.%Drucker%xref no email%1,  Peter J.%Kudenchuk%xref no email%1,  Thomas D.%Rea%xref no email%1,  Mickey S.%Eisenberg%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,          Giuseppe Maria%Sechi%NULL%2,          Giuseppe Maria%Sechi%NULL%0,          Claudio%Mare%NULL%1,          Fabrizio%Canevari%NULL%1,          Antonella%Brancaglione%NULL%1,          Roberto%Primi%NULL%1,          Catherine%Klersy%NULL%1,          Alessandra%Palo%NULL%2,          Alessandra%Palo%NULL%0,          Enrico%Contri%NULL%1,          Vincenza%Ronchi%NULL%2,          Vincenza%Ronchi%NULL%0,          Giorgio%Beretta%NULL%1,          Francesca%Reali%NULL%1,          Pierpaolo%Parogni%NULL%1,          Fabio%Facchin%NULL%1,          Ugo%Rizzi%NULL%1,          Daniele%Bussi%NULL%1,          Simone%Ruggeri%NULL%1,          Luigi%Oltrona Visconti%NULL%1,          Simone%Savastano%s.savastano@smatteo.pv.it%1,          Sara%Compagnoni%NULL%3,          Sara%Compagnoni%NULL%0,          Sara%Compagnoni%NULL%0,          Rosa%Fracchia%NULL%1,          Antonio%Cuzzoli%NULL%1,          Andrea%Pagliosa%NULL%1,          Guido%Matiz%NULL%1,          Alessandra%Russo%NULL%1,          Andrea Lorenzo%Vecchi%NULL%1,          Cecilia%Fantoni%NULL%1,          Cristian%Fava%NULL%1,          Cinzia%Franzosi%NULL%1,          Claudio%Vimercati%NULL%1,          Dario%Franchi%NULL%1,          Enrico%Storti%NULL%1,          Erika%Taravelli%NULL%1,          Fulvio%Giovenzana%NULL%1,          Giovanni%Buetto%NULL%1,          Guido%Garzena%NULL%1,          Giorgio Antonio%Iotti%NULL%1,          Guido Francesco%Villa%NULL%1,          Marco%Botteri%NULL%1,          Salvatore Ivan%Caico%NULL%1,          Irene Raimondi%Cominesi%NULL%1,          Livio%Carnevale%NULL%1,          Matteo%Caresani%NULL%1,          Mario%Luppi%NULL%1,          Maurizio%Migliori%NULL%1,          Paola%Centineo%NULL%1,          Paola%Genoni%NULL%1,          Roberta%Bertona%NULL%1,          Roberto%De Ponti%NULL%1,          Riccardo%Osti%NULL%1,          Stefano%Buratti%NULL%1,          Gian Battista%Danzi%NULL%1,          Arianna%Marioni%NULL%1,          Antonella%De Pirro%NULL%1,          Simone%Molinari%NULL%1,          Vito%Sgromo%NULL%1,          Valeria%Musella%NULL%1,          Martina%Paglino%NULL%1,          Francesco%Mojoli%NULL%1,          Bruno%Lusona%NULL%1,          Michele%Pagani%NULL%1,          Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,          Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,          Jiming%Liu%jiming@comp.hkbu.edu.hk%1,          Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,          Elizabeth A.%Lancet%NULL%1,          Michael D.%Weiden%NULL%1,          Mayris P.%Webber%NULL%1,          Rachel%Zeig-Owens%NULL%1,          Charles B.%Hall%NULL%1,          David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,          Laura%Brischigliaro%NULL%2,          Laura%Brischigliaro%NULL%0,          Tommaso%Scquizzato%NULL%2,          Tommaso%Scquizzato%NULL%0,          Andrea%Favaretto%NULL%2,          Andrea%Favaretto%NULL%0,          Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael R.%Sayre%xref no email%1,   Leslie M.%Barnard%xref no email%1,   Catherine R.%Counts%xref no email%1,   Christopher J.%Drucker%xref no email%1,   Peter J.%Kudenchuk%xref no email%1,   Thomas D.%Rea%xref no email%1,   Mickey S.%Eisenberg%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,           Giuseppe Maria%Sechi%NULL%2,           Giuseppe Maria%Sechi%NULL%0,           Claudio%Mare%NULL%1,           Fabrizio%Canevari%NULL%1,           Antonella%Brancaglione%NULL%1,           Roberto%Primi%NULL%1,           Catherine%Klersy%NULL%1,           Alessandra%Palo%NULL%2,           Alessandra%Palo%NULL%0,           Enrico%Contri%NULL%1,           Vincenza%Ronchi%NULL%2,           Vincenza%Ronchi%NULL%0,           Giorgio%Beretta%NULL%1,           Francesca%Reali%NULL%1,           Pierpaolo%Parogni%NULL%1,           Fabio%Facchin%NULL%1,           Ugo%Rizzi%NULL%1,           Daniele%Bussi%NULL%1,           Simone%Ruggeri%NULL%1,           Luigi%Oltrona Visconti%NULL%1,           Simone%Savastano%s.savastano@smatteo.pv.it%1,           Sara%Compagnoni%NULL%3,           Sara%Compagnoni%NULL%0,           Sara%Compagnoni%NULL%0,           Rosa%Fracchia%NULL%1,           Antonio%Cuzzoli%NULL%1,           Andrea%Pagliosa%NULL%1,           Guido%Matiz%NULL%1,           Alessandra%Russo%NULL%1,           Andrea Lorenzo%Vecchi%NULL%1,           Cecilia%Fantoni%NULL%1,           Cristian%Fava%NULL%1,           Cinzia%Franzosi%NULL%1,           Claudio%Vimercati%NULL%1,           Dario%Franchi%NULL%1,           Enrico%Storti%NULL%1,           Erika%Taravelli%NULL%1,           Fulvio%Giovenzana%NULL%1,           Giovanni%Buetto%NULL%1,           Guido%Garzena%NULL%1,           Giorgio Antonio%Iotti%NULL%1,           Guido Francesco%Villa%NULL%1,           Marco%Botteri%NULL%1,           Salvatore Ivan%Caico%NULL%1,           Irene Raimondi%Cominesi%NULL%1,           Livio%Carnevale%NULL%1,           Matteo%Caresani%NULL%1,           Mario%Luppi%NULL%1,           Maurizio%Migliori%NULL%1,           Paola%Centineo%NULL%1,           Paola%Genoni%NULL%1,           Roberta%Bertona%NULL%1,           Roberto%De Ponti%NULL%1,           Riccardo%Osti%NULL%1,           Stefano%Buratti%NULL%1,           Gian Battista%Danzi%NULL%1,           Arianna%Marioni%NULL%1,           Antonella%De Pirro%NULL%1,           Simone%Molinari%NULL%1,           Vito%Sgromo%NULL%1,           Valeria%Musella%NULL%1,           Martina%Paglino%NULL%1,           Francesco%Mojoli%NULL%1,           Bruno%Lusona%NULL%1,           Michele%Pagani%NULL%1,           Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,           Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,           Jiming%Liu%jiming@comp.hkbu.edu.hk%1,           Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,           Elizabeth A.%Lancet%NULL%1,           Michael D.%Weiden%NULL%1,           Mayris P.%Webber%NULL%1,           Rachel%Zeig-Owens%NULL%1,           Charles B.%Hall%NULL%1,           David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,           Laura%Brischigliaro%NULL%2,           Laura%Brischigliaro%NULL%0,           Tommaso%Scquizzato%NULL%2,           Tommaso%Scquizzato%NULL%0,           Andrea%Favaretto%NULL%2,           Andrea%Favaretto%NULL%0,           Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael R.%Sayre%xref no email%1,    Leslie M.%Barnard%xref no email%1,    Catherine R.%Counts%xref no email%1,    Christopher J.%Drucker%xref no email%1,    Peter J.%Kudenchuk%xref no email%1,    Thomas D.%Rea%xref no email%1,    Mickey S.%Eisenberg%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -607,7 +637,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -636,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -665,7 +695,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -694,7 +724,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -723,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>

--- a/Covid_19_Dataset_and_References/References/100.xlsx
+++ b/Covid_19_Dataset_and_References/References/100.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="100">
   <si>
     <t>Doi</t>
   </si>
@@ -314,6 +314,36 @@
   </si>
   <si>
     <t>[Michael R.%Sayre%xref no email%1,    Leslie M.%Barnard%xref no email%1,    Catherine R.%Counts%xref no email%1,    Christopher J.%Drucker%xref no email%1,    Peter J.%Kudenchuk%xref no email%1,    Thomas D.%Rea%xref no email%1,    Mickey S.%Eisenberg%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,            Giuseppe Maria%Sechi%NULL%2,            Giuseppe Maria%Sechi%NULL%0,            Claudio%Mare%NULL%1,            Fabrizio%Canevari%NULL%1,            Antonella%Brancaglione%NULL%1,            Roberto%Primi%NULL%1,            Catherine%Klersy%NULL%1,            Alessandra%Palo%NULL%2,            Alessandra%Palo%NULL%0,            Enrico%Contri%NULL%1,            Vincenza%Ronchi%NULL%2,            Vincenza%Ronchi%NULL%0,            Giorgio%Beretta%NULL%1,            Francesca%Reali%NULL%1,            Pierpaolo%Parogni%NULL%1,            Fabio%Facchin%NULL%1,            Ugo%Rizzi%NULL%1,            Daniele%Bussi%NULL%1,            Simone%Ruggeri%NULL%1,            Luigi%Oltrona Visconti%NULL%1,            Simone%Savastano%s.savastano@smatteo.pv.it%1,            Sara%Compagnoni%NULL%3,            Sara%Compagnoni%NULL%0,            Sara%Compagnoni%NULL%0,            Rosa%Fracchia%NULL%1,            Antonio%Cuzzoli%NULL%1,            Andrea%Pagliosa%NULL%1,            Guido%Matiz%NULL%1,            Alessandra%Russo%NULL%1,            Andrea Lorenzo%Vecchi%NULL%1,            Cecilia%Fantoni%NULL%1,            Cristian%Fava%NULL%1,            Cinzia%Franzosi%NULL%1,            Claudio%Vimercati%NULL%1,            Dario%Franchi%NULL%1,            Enrico%Storti%NULL%1,            Erika%Taravelli%NULL%1,            Fulvio%Giovenzana%NULL%1,            Giovanni%Buetto%NULL%1,            Guido%Garzena%NULL%1,            Giorgio Antonio%Iotti%NULL%1,            Guido Francesco%Villa%NULL%1,            Marco%Botteri%NULL%1,            Salvatore Ivan%Caico%NULL%1,            Irene Raimondi%Cominesi%NULL%1,            Livio%Carnevale%NULL%1,            Matteo%Caresani%NULL%1,            Mario%Luppi%NULL%1,            Maurizio%Migliori%NULL%1,            Paola%Centineo%NULL%1,            Paola%Genoni%NULL%1,            Roberta%Bertona%NULL%1,            Roberto%De Ponti%NULL%1,            Riccardo%Osti%NULL%1,            Stefano%Buratti%NULL%1,            Gian Battista%Danzi%NULL%1,            Arianna%Marioni%NULL%1,            Antonella%De Pirro%NULL%1,            Simone%Molinari%NULL%1,            Vito%Sgromo%NULL%1,            Valeria%Musella%NULL%1,            Martina%Paglino%NULL%1,            Francesco%Mojoli%NULL%1,            Bruno%Lusona%NULL%1,            Michele%Pagani%NULL%1,            Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,            Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,            Jiming%Liu%jiming@comp.hkbu.edu.hk%1,            Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,            Elizabeth A.%Lancet%NULL%1,            Michael D.%Weiden%NULL%1,            Mayris P.%Webber%NULL%1,            Rachel%Zeig-Owens%NULL%1,            Charles B.%Hall%NULL%1,            David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,            Laura%Brischigliaro%NULL%2,            Laura%Brischigliaro%NULL%0,            Tommaso%Scquizzato%NULL%2,            Tommaso%Scquizzato%NULL%0,            Andrea%Favaretto%NULL%2,            Andrea%Favaretto%NULL%0,            Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael R.%Sayre%xref no email%1,     Leslie M.%Barnard%xref no email%1,     Catherine R.%Counts%xref no email%1,     Christopher J.%Drucker%xref no email%1,     Peter J.%Kudenchuk%xref no email%1,     Thomas D.%Rea%xref no email%1,     Mickey S.%Eisenberg%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,             Giuseppe Maria%Sechi%NULL%2,             Giuseppe Maria%Sechi%NULL%0,             Claudio%Mare%NULL%1,             Fabrizio%Canevari%NULL%1,             Antonella%Brancaglione%NULL%1,             Roberto%Primi%NULL%1,             Catherine%Klersy%NULL%1,             Alessandra%Palo%NULL%2,             Alessandra%Palo%NULL%0,             Enrico%Contri%NULL%1,             Vincenza%Ronchi%NULL%2,             Vincenza%Ronchi%NULL%0,             Giorgio%Beretta%NULL%1,             Francesca%Reali%NULL%1,             Pierpaolo%Parogni%NULL%1,             Fabio%Facchin%NULL%1,             Ugo%Rizzi%NULL%1,             Daniele%Bussi%NULL%1,             Simone%Ruggeri%NULL%1,             Luigi%Oltrona Visconti%NULL%1,             Simone%Savastano%s.savastano@smatteo.pv.it%1,             Sara%Compagnoni%NULL%3,             Sara%Compagnoni%NULL%0,             Sara%Compagnoni%NULL%0,             Rosa%Fracchia%NULL%1,             Antonio%Cuzzoli%NULL%1,             Andrea%Pagliosa%NULL%1,             Guido%Matiz%NULL%1,             Alessandra%Russo%NULL%1,             Andrea Lorenzo%Vecchi%NULL%1,             Cecilia%Fantoni%NULL%1,             Cristian%Fava%NULL%1,             Cinzia%Franzosi%NULL%1,             Claudio%Vimercati%NULL%1,             Dario%Franchi%NULL%1,             Enrico%Storti%NULL%1,             Erika%Taravelli%NULL%1,             Fulvio%Giovenzana%NULL%1,             Giovanni%Buetto%NULL%1,             Guido%Garzena%NULL%1,             Giorgio Antonio%Iotti%NULL%1,             Guido Francesco%Villa%NULL%1,             Marco%Botteri%NULL%1,             Salvatore Ivan%Caico%NULL%1,             Irene Raimondi%Cominesi%NULL%1,             Livio%Carnevale%NULL%1,             Matteo%Caresani%NULL%1,             Mario%Luppi%NULL%1,             Maurizio%Migliori%NULL%1,             Paola%Centineo%NULL%1,             Paola%Genoni%NULL%1,             Roberta%Bertona%NULL%1,             Roberto%De Ponti%NULL%1,             Riccardo%Osti%NULL%1,             Stefano%Buratti%NULL%1,             Gian Battista%Danzi%NULL%1,             Arianna%Marioni%NULL%1,             Antonella%De Pirro%NULL%1,             Simone%Molinari%NULL%1,             Vito%Sgromo%NULL%1,             Valeria%Musella%NULL%1,             Martina%Paglino%NULL%1,             Francesco%Mojoli%NULL%1,             Bruno%Lusona%NULL%1,             Michele%Pagani%NULL%1,             Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,             Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,             Jiming%Liu%jiming@comp.hkbu.edu.hk%1,             Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,             Elizabeth A.%Lancet%NULL%1,             Michael D.%Weiden%NULL%1,             Mayris P.%Webber%NULL%1,             Rachel%Zeig-Owens%NULL%1,             Charles B.%Hall%NULL%1,             David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,             Laura%Brischigliaro%NULL%2,             Laura%Brischigliaro%NULL%0,             Tommaso%Scquizzato%NULL%2,             Tommaso%Scquizzato%NULL%0,             Andrea%Favaretto%NULL%2,             Andrea%Favaretto%NULL%0,             Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael R.%Sayre%xref no email%1,      Leslie M.%Barnard%xref no email%1,      Catherine R.%Counts%xref no email%1,      Christopher J.%Drucker%xref no email%1,      Peter J.%Kudenchuk%xref no email%1,      Thomas D.%Rea%xref no email%1,      Mickey S.%Eisenberg%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -637,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -666,7 +696,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -695,7 +725,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -724,7 +754,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -753,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>

--- a/Covid_19_Dataset_and_References/References/100.xlsx
+++ b/Covid_19_Dataset_and_References/References/100.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="105">
   <si>
     <t>Doi</t>
   </si>
@@ -344,6 +344,21 @@
   </si>
   <si>
     <t>[Michael R.%Sayre%xref no email%1,      Leslie M.%Barnard%xref no email%1,      Catherine R.%Counts%xref no email%1,      Christopher J.%Drucker%xref no email%1,      Peter J.%Kudenchuk%xref no email%1,      Thomas D.%Rea%xref no email%1,      Mickey S.%Eisenberg%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,              Giuseppe Maria%Sechi%NULL%2,              Giuseppe Maria%Sechi%NULL%0,              Claudio%Mare%NULL%1,              Fabrizio%Canevari%NULL%1,              Antonella%Brancaglione%NULL%1,              Roberto%Primi%NULL%1,              Catherine%Klersy%NULL%1,              Alessandra%Palo%NULL%2,              Alessandra%Palo%NULL%0,              Enrico%Contri%NULL%1,              Vincenza%Ronchi%NULL%2,              Vincenza%Ronchi%NULL%0,              Giorgio%Beretta%NULL%1,              Francesca%Reali%NULL%1,              Pierpaolo%Parogni%NULL%1,              Fabio%Facchin%NULL%1,              Ugo%Rizzi%NULL%1,              Daniele%Bussi%NULL%1,              Simone%Ruggeri%NULL%1,              Luigi%Oltrona Visconti%NULL%1,              Simone%Savastano%s.savastano@smatteo.pv.it%1,              Sara%Compagnoni%NULL%3,              Sara%Compagnoni%NULL%0,              Sara%Compagnoni%NULL%0,              Rosa%Fracchia%NULL%1,              Antonio%Cuzzoli%NULL%1,              Andrea%Pagliosa%NULL%1,              Guido%Matiz%NULL%1,              Alessandra%Russo%NULL%1,              Andrea Lorenzo%Vecchi%NULL%1,              Cecilia%Fantoni%NULL%1,              Cristian%Fava%NULL%1,              Cinzia%Franzosi%NULL%1,              Claudio%Vimercati%NULL%1,              Dario%Franchi%NULL%1,              Enrico%Storti%NULL%1,              Erika%Taravelli%NULL%1,              Fulvio%Giovenzana%NULL%1,              Giovanni%Buetto%NULL%1,              Guido%Garzena%NULL%1,              Giorgio Antonio%Iotti%NULL%1,              Guido Francesco%Villa%NULL%1,              Marco%Botteri%NULL%1,              Salvatore Ivan%Caico%NULL%1,              Irene Raimondi%Cominesi%NULL%1,              Livio%Carnevale%NULL%1,              Matteo%Caresani%NULL%1,              Mario%Luppi%NULL%1,              Maurizio%Migliori%NULL%1,              Paola%Centineo%NULL%1,              Paola%Genoni%NULL%1,              Roberta%Bertona%NULL%1,              Roberto%De Ponti%NULL%1,              Riccardo%Osti%NULL%1,              Stefano%Buratti%NULL%1,              Gian Battista%Danzi%NULL%1,              Arianna%Marioni%NULL%1,              Antonella%De Pirro%NULL%1,              Simone%Molinari%NULL%1,              Vito%Sgromo%NULL%1,              Valeria%Musella%NULL%1,              Martina%Paglino%NULL%1,              Francesco%Mojoli%NULL%1,              Bruno%Lusona%NULL%1,              Michele%Pagani%NULL%1,              Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,              Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,              Jiming%Liu%jiming@comp.hkbu.edu.hk%1,              Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,              Elizabeth A.%Lancet%NULL%1,              Michael D.%Weiden%NULL%1,              Mayris P.%Webber%NULL%1,              Rachel%Zeig-Owens%NULL%1,              Charles B.%Hall%NULL%1,              David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,              Laura%Brischigliaro%NULL%2,              Laura%Brischigliaro%NULL%0,              Tommaso%Scquizzato%NULL%2,              Tommaso%Scquizzato%NULL%0,              Andrea%Favaretto%NULL%2,              Andrea%Favaretto%NULL%0,              Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael R.%Sayre%xref no email%1,       Leslie M.%Barnard%xref no email%1,       Catherine R.%Counts%xref no email%1,       Christopher J.%Drucker%xref no email%1,       Peter J.%Kudenchuk%xref no email%1,       Thomas D.%Rea%xref no email%1,       Mickey S.%Eisenberg%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -667,7 +682,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -696,7 +711,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -725,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -754,7 +769,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -783,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>

--- a/Covid_19_Dataset_and_References/References/100.xlsx
+++ b/Covid_19_Dataset_and_References/References/100.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="110">
   <si>
     <t>Doi</t>
   </si>
@@ -359,6 +359,21 @@
   </si>
   <si>
     <t>[Michael R.%Sayre%xref no email%1,       Leslie M.%Barnard%xref no email%1,       Catherine R.%Counts%xref no email%1,       Christopher J.%Drucker%xref no email%1,       Peter J.%Kudenchuk%xref no email%1,       Thomas D.%Rea%xref no email%1,       Mickey S.%Eisenberg%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,               Giuseppe Maria%Sechi%NULL%2,               Giuseppe Maria%Sechi%NULL%0,               Claudio%Mare%NULL%1,               Fabrizio%Canevari%NULL%1,               Antonella%Brancaglione%NULL%1,               Roberto%Primi%NULL%1,               Catherine%Klersy%NULL%1,               Alessandra%Palo%NULL%2,               Alessandra%Palo%NULL%0,               Enrico%Contri%NULL%1,               Vincenza%Ronchi%NULL%2,               Vincenza%Ronchi%NULL%0,               Giorgio%Beretta%NULL%1,               Francesca%Reali%NULL%1,               Pierpaolo%Parogni%NULL%1,               Fabio%Facchin%NULL%1,               Ugo%Rizzi%NULL%1,               Daniele%Bussi%NULL%1,               Simone%Ruggeri%NULL%1,               Luigi%Oltrona Visconti%NULL%1,               Simone%Savastano%s.savastano@smatteo.pv.it%1,               Sara%Compagnoni%NULL%3,               Sara%Compagnoni%NULL%0,               Sara%Compagnoni%NULL%0,               Rosa%Fracchia%NULL%1,               Antonio%Cuzzoli%NULL%1,               Andrea%Pagliosa%NULL%1,               Guido%Matiz%NULL%1,               Alessandra%Russo%NULL%1,               Andrea Lorenzo%Vecchi%NULL%1,               Cecilia%Fantoni%NULL%1,               Cristian%Fava%NULL%1,               Cinzia%Franzosi%NULL%1,               Claudio%Vimercati%NULL%1,               Dario%Franchi%NULL%1,               Enrico%Storti%NULL%1,               Erika%Taravelli%NULL%1,               Fulvio%Giovenzana%NULL%1,               Giovanni%Buetto%NULL%1,               Guido%Garzena%NULL%1,               Giorgio Antonio%Iotti%NULL%1,               Guido Francesco%Villa%NULL%1,               Marco%Botteri%NULL%1,               Salvatore Ivan%Caico%NULL%1,               Irene Raimondi%Cominesi%NULL%1,               Livio%Carnevale%NULL%1,               Matteo%Caresani%NULL%1,               Mario%Luppi%NULL%1,               Maurizio%Migliori%NULL%1,               Paola%Centineo%NULL%1,               Paola%Genoni%NULL%1,               Roberta%Bertona%NULL%1,               Roberto%De Ponti%NULL%1,               Riccardo%Osti%NULL%1,               Stefano%Buratti%NULL%1,               Gian Battista%Danzi%NULL%1,               Arianna%Marioni%NULL%1,               Antonella%De Pirro%NULL%1,               Simone%Molinari%NULL%1,               Vito%Sgromo%NULL%1,               Valeria%Musella%NULL%1,               Martina%Paglino%NULL%1,               Francesco%Mojoli%NULL%1,               Bruno%Lusona%NULL%1,               Michele%Pagani%NULL%1,               Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,               Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,               Jiming%Liu%jiming@comp.hkbu.edu.hk%1,               Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,               Elizabeth A.%Lancet%NULL%1,               Michael D.%Weiden%NULL%1,               Mayris P.%Webber%NULL%1,               Rachel%Zeig-Owens%NULL%1,               Charles B.%Hall%NULL%1,               David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,               Laura%Brischigliaro%NULL%2,               Laura%Brischigliaro%NULL%0,               Tommaso%Scquizzato%NULL%2,               Tommaso%Scquizzato%NULL%0,               Andrea%Favaretto%NULL%2,               Andrea%Favaretto%NULL%0,               Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael R.%Sayre%xref no email%1,        Leslie M.%Barnard%xref no email%1,        Catherine R.%Counts%xref no email%1,        Christopher J.%Drucker%xref no email%1,        Peter J.%Kudenchuk%xref no email%1,        Thomas D.%Rea%xref no email%1,        Mickey S.%Eisenberg%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -682,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -711,7 +726,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -740,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -769,7 +784,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -798,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>

--- a/Covid_19_Dataset_and_References/References/100.xlsx
+++ b/Covid_19_Dataset_and_References/References/100.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="120">
   <si>
     <t>Doi</t>
   </si>
@@ -374,6 +374,36 @@
   </si>
   <si>
     <t>[Michael R.%Sayre%xref no email%1,        Leslie M.%Barnard%xref no email%1,        Catherine R.%Counts%xref no email%1,        Christopher J.%Drucker%xref no email%1,        Peter J.%Kudenchuk%xref no email%1,        Thomas D.%Rea%xref no email%1,        Mickey S.%Eisenberg%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,                Giuseppe Maria%Sechi%NULL%2,                Giuseppe Maria%Sechi%NULL%0,                Claudio%Mare%NULL%1,                Fabrizio%Canevari%NULL%1,                Antonella%Brancaglione%NULL%1,                Roberto%Primi%NULL%1,                Catherine%Klersy%NULL%1,                Alessandra%Palo%NULL%2,                Alessandra%Palo%NULL%0,                Enrico%Contri%NULL%1,                Vincenza%Ronchi%NULL%2,                Vincenza%Ronchi%NULL%0,                Giorgio%Beretta%NULL%1,                Francesca%Reali%NULL%1,                Pierpaolo%Parogni%NULL%1,                Fabio%Facchin%NULL%1,                Ugo%Rizzi%NULL%1,                Daniele%Bussi%NULL%1,                Simone%Ruggeri%NULL%1,                Luigi%Oltrona Visconti%NULL%1,                Simone%Savastano%s.savastano@smatteo.pv.it%1,                Sara%Compagnoni%NULL%3,                Sara%Compagnoni%NULL%0,                Sara%Compagnoni%NULL%0,                Rosa%Fracchia%NULL%1,                Antonio%Cuzzoli%NULL%1,                Andrea%Pagliosa%NULL%1,                Guido%Matiz%NULL%1,                Alessandra%Russo%NULL%1,                Andrea Lorenzo%Vecchi%NULL%1,                Cecilia%Fantoni%NULL%1,                Cristian%Fava%NULL%1,                Cinzia%Franzosi%NULL%1,                Claudio%Vimercati%NULL%1,                Dario%Franchi%NULL%1,                Enrico%Storti%NULL%1,                Erika%Taravelli%NULL%1,                Fulvio%Giovenzana%NULL%1,                Giovanni%Buetto%NULL%1,                Guido%Garzena%NULL%1,                Giorgio Antonio%Iotti%NULL%1,                Guido Francesco%Villa%NULL%1,                Marco%Botteri%NULL%1,                Salvatore Ivan%Caico%NULL%1,                Irene Raimondi%Cominesi%NULL%1,                Livio%Carnevale%NULL%1,                Matteo%Caresani%NULL%1,                Mario%Luppi%NULL%1,                Maurizio%Migliori%NULL%1,                Paola%Centineo%NULL%1,                Paola%Genoni%NULL%1,                Roberta%Bertona%NULL%1,                Roberto%De Ponti%NULL%1,                Riccardo%Osti%NULL%1,                Stefano%Buratti%NULL%1,                Gian Battista%Danzi%NULL%1,                Arianna%Marioni%NULL%1,                Antonella%De Pirro%NULL%1,                Simone%Molinari%NULL%1,                Vito%Sgromo%NULL%1,                Valeria%Musella%NULL%1,                Martina%Paglino%NULL%1,                Francesco%Mojoli%NULL%1,                Bruno%Lusona%NULL%1,                Michele%Pagani%NULL%1,                Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,                Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,                Jiming%Liu%jiming@comp.hkbu.edu.hk%1,                Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,                Elizabeth A.%Lancet%NULL%1,                Michael D.%Weiden%NULL%1,                Mayris P.%Webber%NULL%1,                Rachel%Zeig-Owens%NULL%1,                Charles B.%Hall%NULL%1,                David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,                Laura%Brischigliaro%NULL%2,                Laura%Brischigliaro%NULL%0,                Tommaso%Scquizzato%NULL%2,                Tommaso%Scquizzato%NULL%0,                Andrea%Favaretto%NULL%2,                Andrea%Favaretto%NULL%0,                Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael R.%Sayre%xref no email%1,         Leslie M.%Barnard%xref no email%1,         Catherine R.%Counts%xref no email%1,         Christopher J.%Drucker%xref no email%1,         Peter J.%Kudenchuk%xref no email%1,         Thomas D.%Rea%xref no email%1,         Mickey S.%Eisenberg%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,                 Giuseppe Maria%Sechi%NULL%2,                 Giuseppe Maria%Sechi%NULL%0,                 Claudio%Mare%NULL%1,                 Fabrizio%Canevari%NULL%1,                 Antonella%Brancaglione%NULL%1,                 Roberto%Primi%NULL%1,                 Catherine%Klersy%NULL%1,                 Alessandra%Palo%NULL%2,                 Alessandra%Palo%NULL%0,                 Enrico%Contri%NULL%1,                 Vincenza%Ronchi%NULL%2,                 Vincenza%Ronchi%NULL%0,                 Giorgio%Beretta%NULL%1,                 Francesca%Reali%NULL%1,                 Pierpaolo%Parogni%NULL%1,                 Fabio%Facchin%NULL%1,                 Ugo%Rizzi%NULL%1,                 Daniele%Bussi%NULL%1,                 Simone%Ruggeri%NULL%1,                 Luigi%Oltrona Visconti%NULL%1,                 Simone%Savastano%s.savastano@smatteo.pv.it%1,                 Sara%Compagnoni%NULL%3,                 Sara%Compagnoni%NULL%0,                 Sara%Compagnoni%NULL%0,                 Rosa%Fracchia%NULL%1,                 Antonio%Cuzzoli%NULL%1,                 Andrea%Pagliosa%NULL%1,                 Guido%Matiz%NULL%1,                 Alessandra%Russo%NULL%1,                 Andrea Lorenzo%Vecchi%NULL%1,                 Cecilia%Fantoni%NULL%1,                 Cristian%Fava%NULL%1,                 Cinzia%Franzosi%NULL%1,                 Claudio%Vimercati%NULL%1,                 Dario%Franchi%NULL%1,                 Enrico%Storti%NULL%1,                 Erika%Taravelli%NULL%1,                 Fulvio%Giovenzana%NULL%1,                 Giovanni%Buetto%NULL%1,                 Guido%Garzena%NULL%1,                 Giorgio Antonio%Iotti%NULL%1,                 Guido Francesco%Villa%NULL%1,                 Marco%Botteri%NULL%1,                 Salvatore Ivan%Caico%NULL%1,                 Irene Raimondi%Cominesi%NULL%1,                 Livio%Carnevale%NULL%1,                 Matteo%Caresani%NULL%1,                 Mario%Luppi%NULL%1,                 Maurizio%Migliori%NULL%1,                 Paola%Centineo%NULL%1,                 Paola%Genoni%NULL%1,                 Roberta%Bertona%NULL%1,                 Roberto%De Ponti%NULL%1,                 Riccardo%Osti%NULL%1,                 Stefano%Buratti%NULL%1,                 Gian Battista%Danzi%NULL%1,                 Arianna%Marioni%NULL%1,                 Antonella%De Pirro%NULL%1,                 Simone%Molinari%NULL%1,                 Vito%Sgromo%NULL%1,                 Valeria%Musella%NULL%1,                 Martina%Paglino%NULL%1,                 Francesco%Mojoli%NULL%1,                 Bruno%Lusona%NULL%1,                 Michele%Pagani%NULL%1,                 Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,                 Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,                 Jiming%Liu%jiming@comp.hkbu.edu.hk%1,                 Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,                 Elizabeth A.%Lancet%NULL%1,                 Michael D.%Weiden%NULL%1,                 Mayris P.%Webber%NULL%1,                 Rachel%Zeig-Owens%NULL%1,                 Charles B.%Hall%NULL%1,                 David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,                 Laura%Brischigliaro%NULL%2,                 Laura%Brischigliaro%NULL%0,                 Tommaso%Scquizzato%NULL%2,                 Tommaso%Scquizzato%NULL%0,                 Andrea%Favaretto%NULL%2,                 Andrea%Favaretto%NULL%0,                 Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael R.%Sayre%xref no email%1,          Leslie M.%Barnard%xref no email%1,          Catherine R.%Counts%xref no email%1,          Christopher J.%Drucker%xref no email%1,          Peter J.%Kudenchuk%xref no email%1,          Thomas D.%Rea%xref no email%1,          Mickey S.%Eisenberg%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -697,7 +727,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -726,7 +756,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -755,7 +785,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -784,7 +814,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -813,7 +843,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>

--- a/Covid_19_Dataset_and_References/References/100.xlsx
+++ b/Covid_19_Dataset_and_References/References/100.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="125">
   <si>
     <t>Doi</t>
   </si>
@@ -404,6 +404,21 @@
   </si>
   <si>
     <t>[Michael R.%Sayre%xref no email%1,          Leslie M.%Barnard%xref no email%1,          Catherine R.%Counts%xref no email%1,          Christopher J.%Drucker%xref no email%1,          Peter J.%Kudenchuk%xref no email%1,          Thomas D.%Rea%xref no email%1,          Mickey S.%Eisenberg%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,                  Giuseppe Maria%Sechi%NULL%2,                  Giuseppe Maria%Sechi%NULL%0,                  Claudio%Mare%NULL%1,                  Fabrizio%Canevari%NULL%1,                  Antonella%Brancaglione%NULL%1,                  Roberto%Primi%NULL%1,                  Catherine%Klersy%NULL%1,                  Alessandra%Palo%NULL%2,                  Alessandra%Palo%NULL%0,                  Enrico%Contri%NULL%1,                  Vincenza%Ronchi%NULL%2,                  Vincenza%Ronchi%NULL%0,                  Giorgio%Beretta%NULL%1,                  Francesca%Reali%NULL%1,                  Pierpaolo%Parogni%NULL%1,                  Fabio%Facchin%NULL%1,                  Ugo%Rizzi%NULL%1,                  Daniele%Bussi%NULL%1,                  Simone%Ruggeri%NULL%1,                  Luigi%Oltrona Visconti%NULL%1,                  Simone%Savastano%s.savastano@smatteo.pv.it%1,                  Sara%Compagnoni%NULL%3,                  Sara%Compagnoni%NULL%0,                  Sara%Compagnoni%NULL%0,                  Rosa%Fracchia%NULL%1,                  Antonio%Cuzzoli%NULL%1,                  Andrea%Pagliosa%NULL%1,                  Guido%Matiz%NULL%1,                  Alessandra%Russo%NULL%1,                  Andrea Lorenzo%Vecchi%NULL%1,                  Cecilia%Fantoni%NULL%1,                  Cristian%Fava%NULL%1,                  Cinzia%Franzosi%NULL%1,                  Claudio%Vimercati%NULL%1,                  Dario%Franchi%NULL%1,                  Enrico%Storti%NULL%1,                  Erika%Taravelli%NULL%1,                  Fulvio%Giovenzana%NULL%1,                  Giovanni%Buetto%NULL%1,                  Guido%Garzena%NULL%1,                  Giorgio Antonio%Iotti%NULL%1,                  Guido Francesco%Villa%NULL%1,                  Marco%Botteri%NULL%1,                  Salvatore Ivan%Caico%NULL%1,                  Irene Raimondi%Cominesi%NULL%1,                  Livio%Carnevale%NULL%1,                  Matteo%Caresani%NULL%1,                  Mario%Luppi%NULL%1,                  Maurizio%Migliori%NULL%1,                  Paola%Centineo%NULL%1,                  Paola%Genoni%NULL%1,                  Roberta%Bertona%NULL%1,                  Roberto%De Ponti%NULL%1,                  Riccardo%Osti%NULL%1,                  Stefano%Buratti%NULL%1,                  Gian Battista%Danzi%NULL%1,                  Arianna%Marioni%NULL%1,                  Antonella%De Pirro%NULL%1,                  Simone%Molinari%NULL%1,                  Vito%Sgromo%NULL%1,                  Valeria%Musella%NULL%1,                  Martina%Paglino%NULL%1,                  Francesco%Mojoli%NULL%1,                  Bruno%Lusona%NULL%1,                  Michele%Pagani%NULL%1,                  Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,                  Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,                  Jiming%Liu%jiming@comp.hkbu.edu.hk%1,                  Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,                  Elizabeth A.%Lancet%NULL%1,                  Michael D.%Weiden%NULL%1,                  Mayris P.%Webber%NULL%1,                  Rachel%Zeig-Owens%NULL%1,                  Charles B.%Hall%NULL%1,                  David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,                  Laura%Brischigliaro%NULL%2,                  Laura%Brischigliaro%NULL%0,                  Tommaso%Scquizzato%NULL%2,                  Tommaso%Scquizzato%NULL%0,                  Andrea%Favaretto%NULL%2,                  Andrea%Favaretto%NULL%0,                  Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael R.%Sayre%xref no email%1,           Leslie M.%Barnard%xref no email%1,           Catherine R.%Counts%xref no email%1,           Christopher J.%Drucker%xref no email%1,           Peter J.%Kudenchuk%xref no email%1,           Thomas D.%Rea%xref no email%1,           Mickey S.%Eisenberg%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -727,7 +742,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -756,7 +771,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -785,7 +800,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -814,7 +829,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -843,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>

--- a/Covid_19_Dataset_and_References/References/100.xlsx
+++ b/Covid_19_Dataset_and_References/References/100.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="134">
   <si>
     <t>Doi</t>
   </si>
@@ -419,6 +419,33 @@
   </si>
   <si>
     <t>[Michael R.%Sayre%xref no email%1,           Leslie M.%Barnard%xref no email%1,           Catherine R.%Counts%xref no email%1,           Christopher J.%Drucker%xref no email%1,           Peter J.%Kudenchuk%xref no email%1,           Thomas D.%Rea%xref no email%1,           Mickey S.%Eisenberg%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,                   Giuseppe Maria%Sechi%NULL%2,                   Giuseppe Maria%Sechi%NULL%0,                   Claudio%Mare%NULL%1,                   Fabrizio%Canevari%NULL%1,                   Antonella%Brancaglione%NULL%1,                   Roberto%Primi%NULL%1,                   Catherine%Klersy%NULL%1,                   Alessandra%Palo%NULL%2,                   Alessandra%Palo%NULL%0,                   Enrico%Contri%NULL%1,                   Vincenza%Ronchi%NULL%2,                   Vincenza%Ronchi%NULL%0,                   Giorgio%Beretta%NULL%1,                   Francesca%Reali%NULL%1,                   Pierpaolo%Parogni%NULL%1,                   Fabio%Facchin%NULL%1,                   Ugo%Rizzi%NULL%1,                   Daniele%Bussi%NULL%1,                   Simone%Ruggeri%NULL%1,                   Luigi%Oltrona Visconti%NULL%1,                   Simone%Savastano%s.savastano@smatteo.pv.it%1,                   Sara%Compagnoni%NULL%3,                   Sara%Compagnoni%NULL%0,                   Sara%Compagnoni%NULL%0,                   Rosa%Fracchia%NULL%1,                   Antonio%Cuzzoli%NULL%1,                   Andrea%Pagliosa%NULL%1,                   Guido%Matiz%NULL%1,                   Alessandra%Russo%NULL%1,                   Andrea Lorenzo%Vecchi%NULL%1,                   Cecilia%Fantoni%NULL%1,                   Cristian%Fava%NULL%1,                   Cinzia%Franzosi%NULL%1,                   Claudio%Vimercati%NULL%1,                   Dario%Franchi%NULL%1,                   Enrico%Storti%NULL%1,                   Erika%Taravelli%NULL%1,                   Fulvio%Giovenzana%NULL%1,                   Giovanni%Buetto%NULL%1,                   Guido%Garzena%NULL%1,                   Giorgio Antonio%Iotti%NULL%1,                   Guido Francesco%Villa%NULL%1,                   Marco%Botteri%NULL%1,                   Salvatore Ivan%Caico%NULL%1,                   Irene Raimondi%Cominesi%NULL%1,                   Livio%Carnevale%NULL%1,                   Matteo%Caresani%NULL%1,                   Mario%Luppi%NULL%1,                   Maurizio%Migliori%NULL%1,                   Paola%Centineo%NULL%1,                   Paola%Genoni%NULL%1,                   Roberta%Bertona%NULL%1,                   Roberto%De Ponti%NULL%1,                   Riccardo%Osti%NULL%1,                   Stefano%Buratti%NULL%1,                   Gian Battista%Danzi%NULL%1,                   Arianna%Marioni%NULL%1,                   Antonella%De Pirro%NULL%1,                   Simone%Molinari%NULL%1,                   Vito%Sgromo%NULL%1,                   Valeria%Musella%NULL%1,                   Martina%Paglino%NULL%1,                   Francesco%Mojoli%NULL%1,                   Bruno%Lusona%NULL%1,                   Michele%Pagani%NULL%1,                   Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,                   Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,                   Jiming%Liu%jiming@comp.hkbu.edu.hk%1,                   Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,                   Elizabeth A.%Lancet%NULL%1,                   Michael D.%Weiden%NULL%1,                   Mayris P.%Webber%NULL%1,                   Rachel%Zeig-Owens%NULL%1,                   Charles B.%Hall%NULL%1,                   David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,                   Laura%Brischigliaro%NULL%2,                   Laura%Brischigliaro%NULL%0,                   Tommaso%Scquizzato%NULL%2,                   Tommaso%Scquizzato%NULL%0,                   Andrea%Favaretto%NULL%2,                   Andrea%Favaretto%NULL%0,                   Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Michael R.%Sayre%xref no email%1,            Leslie M.%Barnard%xref no email%1,            Catherine R.%Counts%xref no email%1,            Christopher J.%Drucker%xref no email%1,            Peter J.%Kudenchuk%xref no email%1,            Thomas D.%Rea%xref no email%1,            Mickey S.%Eisenberg%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
   </si>
 </sst>
 </file>
@@ -742,7 +769,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -754,7 +781,7 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -771,7 +798,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -783,7 +810,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
@@ -800,7 +827,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -812,7 +839,7 @@
         <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -829,7 +856,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -841,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
@@ -858,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -870,7 +897,7 @@
         <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/100.xlsx
+++ b/Covid_19_Dataset_and_References/References/100.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="139">
   <si>
     <t>Doi</t>
   </si>
@@ -446,6 +446,21 @@
   </si>
   <si>
     <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,                    Giuseppe Maria%Sechi%NULL%2,                    Giuseppe Maria%Sechi%NULL%0,                    Claudio%Mare%NULL%1,                    Fabrizio%Canevari%NULL%1,                    Antonella%Brancaglione%NULL%1,                    Roberto%Primi%NULL%1,                    Catherine%Klersy%NULL%1,                    Alessandra%Palo%NULL%2,                    Alessandra%Palo%NULL%0,                    Enrico%Contri%NULL%1,                    Vincenza%Ronchi%NULL%2,                    Vincenza%Ronchi%NULL%0,                    Giorgio%Beretta%NULL%1,                    Francesca%Reali%NULL%1,                    Pierpaolo%Parogni%NULL%1,                    Fabio%Facchin%NULL%1,                    Ugo%Rizzi%NULL%1,                    Daniele%Bussi%NULL%1,                    Simone%Ruggeri%NULL%1,                    Luigi%Oltrona Visconti%NULL%1,                    Simone%Savastano%s.savastano@smatteo.pv.it%1,                    Sara%Compagnoni%NULL%3,                    Sara%Compagnoni%NULL%0,                    Sara%Compagnoni%NULL%0,                    Rosa%Fracchia%NULL%1,                    Antonio%Cuzzoli%NULL%1,                    Andrea%Pagliosa%NULL%1,                    Guido%Matiz%NULL%1,                    Alessandra%Russo%NULL%1,                    Andrea Lorenzo%Vecchi%NULL%1,                    Cecilia%Fantoni%NULL%1,                    Cristian%Fava%NULL%1,                    Cinzia%Franzosi%NULL%1,                    Claudio%Vimercati%NULL%1,                    Dario%Franchi%NULL%1,                    Enrico%Storti%NULL%1,                    Erika%Taravelli%NULL%1,                    Fulvio%Giovenzana%NULL%1,                    Giovanni%Buetto%NULL%1,                    Guido%Garzena%NULL%1,                    Giorgio Antonio%Iotti%NULL%1,                    Guido Francesco%Villa%NULL%1,                    Marco%Botteri%NULL%1,                    Salvatore Ivan%Caico%NULL%1,                    Irene Raimondi%Cominesi%NULL%1,                    Livio%Carnevale%NULL%1,                    Matteo%Caresani%NULL%1,                    Mario%Luppi%NULL%1,                    Maurizio%Migliori%NULL%1,                    Paola%Centineo%NULL%1,                    Paola%Genoni%NULL%1,                    Roberta%Bertona%NULL%1,                    Roberto%De Ponti%NULL%1,                    Riccardo%Osti%NULL%1,                    Stefano%Buratti%NULL%1,                    Gian Battista%Danzi%NULL%1,                    Arianna%Marioni%NULL%1,                    Antonella%De Pirro%NULL%1,                    Simone%Molinari%NULL%1,                    Vito%Sgromo%NULL%1,                    Valeria%Musella%NULL%1,                    Martina%Paglino%NULL%1,                    Francesco%Mojoli%NULL%1,                    Bruno%Lusona%NULL%1,                    Michele%Pagani%NULL%1,                    Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,                    Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,                    Jiming%Liu%jiming@comp.hkbu.edu.hk%1,                    Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,                    Elizabeth A.%Lancet%NULL%1,                    Michael D.%Weiden%NULL%1,                    Mayris P.%Webber%NULL%1,                    Rachel%Zeig-Owens%NULL%1,                    Charles B.%Hall%NULL%1,                    David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,                    Laura%Brischigliaro%NULL%2,                    Laura%Brischigliaro%NULL%0,                    Tommaso%Scquizzato%NULL%2,                    Tommaso%Scquizzato%NULL%0,                    Andrea%Favaretto%NULL%2,                    Andrea%Favaretto%NULL%0,                    Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael R.%Sayre%xref no email%1,             Leslie M.%Barnard%xref no email%1,             Catherine R.%Counts%xref no email%1,             Christopher J.%Drucker%xref no email%1,             Peter J.%Kudenchuk%xref no email%1,             Thomas D.%Rea%xref no email%1,             Mickey S.%Eisenberg%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -769,7 +784,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -798,7 +813,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -827,7 +842,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -856,7 +871,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -885,7 +900,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>

--- a/Covid_19_Dataset_and_References/References/100.xlsx
+++ b/Covid_19_Dataset_and_References/References/100.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="163">
   <si>
     <t>Doi</t>
   </si>
@@ -461,6 +461,78 @@
   </si>
   <si>
     <t>[Michael R.%Sayre%xref no email%1,             Leslie M.%Barnard%xref no email%1,             Catherine R.%Counts%xref no email%1,             Christopher J.%Drucker%xref no email%1,             Peter J.%Kudenchuk%xref no email%1,             Thomas D.%Rea%xref no email%1,             Mickey S.%Eisenberg%xref no email%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,                     Giuseppe Maria%Sechi%NULL%2,                     Giuseppe Maria%Sechi%NULL%0,                     Claudio%Mare%NULL%1,                     Fabrizio%Canevari%NULL%1,                     Antonella%Brancaglione%NULL%1,                     Roberto%Primi%NULL%1,                     Catherine%Klersy%NULL%1,                     Alessandra%Palo%NULL%2,                     Alessandra%Palo%NULL%0,                     Enrico%Contri%NULL%1,                     Vincenza%Ronchi%NULL%2,                     Vincenza%Ronchi%NULL%0,                     Giorgio%Beretta%NULL%1,                     Francesca%Reali%NULL%1,                     Pierpaolo%Parogni%NULL%1,                     Fabio%Facchin%NULL%1,                     Ugo%Rizzi%NULL%1,                     Daniele%Bussi%NULL%1,                     Simone%Ruggeri%NULL%1,                     Luigi%Oltrona Visconti%NULL%1,                     Simone%Savastano%s.savastano@smatteo.pv.it%1,                     Sara%Compagnoni%NULL%3,                     Sara%Compagnoni%NULL%0,                     Sara%Compagnoni%NULL%0,                     Rosa%Fracchia%NULL%1,                     Antonio%Cuzzoli%NULL%1,                     Andrea%Pagliosa%NULL%1,                     Guido%Matiz%NULL%1,                     Alessandra%Russo%NULL%1,                     Andrea Lorenzo%Vecchi%NULL%1,                     Cecilia%Fantoni%NULL%1,                     Cristian%Fava%NULL%1,                     Cinzia%Franzosi%NULL%1,                     Claudio%Vimercati%NULL%1,                     Dario%Franchi%NULL%1,                     Enrico%Storti%NULL%1,                     Erika%Taravelli%NULL%1,                     Fulvio%Giovenzana%NULL%1,                     Giovanni%Buetto%NULL%1,                     Guido%Garzena%NULL%1,                     Giorgio Antonio%Iotti%NULL%1,                     Guido Francesco%Villa%NULL%1,                     Marco%Botteri%NULL%1,                     Salvatore Ivan%Caico%NULL%1,                     Irene Raimondi%Cominesi%NULL%1,                     Livio%Carnevale%NULL%1,                     Matteo%Caresani%NULL%1,                     Mario%Luppi%NULL%1,                     Maurizio%Migliori%NULL%1,                     Paola%Centineo%NULL%1,                     Paola%Genoni%NULL%1,                     Roberta%Bertona%NULL%1,                     Roberto%De Ponti%NULL%1,                     Riccardo%Osti%NULL%1,                     Stefano%Buratti%NULL%1,                     Gian Battista%Danzi%NULL%1,                     Arianna%Marioni%NULL%1,                     Antonella%De Pirro%NULL%1,                     Simone%Molinari%NULL%1,                     Vito%Sgromo%NULL%1,                     Valeria%Musella%NULL%1,                     Martina%Paglino%NULL%1,                     Francesco%Mojoli%NULL%1,                     Bruno%Lusona%NULL%1,                     Michele%Pagani%NULL%1,                     Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,                     Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,                     Jiming%Liu%jiming@comp.hkbu.edu.hk%1,                     Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,                     Elizabeth A.%Lancet%NULL%1,                     Michael D.%Weiden%NULL%1,                     Mayris P.%Webber%NULL%1,                     Rachel%Zeig-Owens%NULL%1,                     Charles B.%Hall%NULL%1,                     David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,                     Laura%Brischigliaro%NULL%2,                     Laura%Brischigliaro%NULL%0,                     Tommaso%Scquizzato%NULL%2,                     Tommaso%Scquizzato%NULL%0,                     Andrea%Favaretto%NULL%2,                     Andrea%Favaretto%NULL%0,                     Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael R.%Sayre%xref no email%0, Leslie M.%Barnard%xref no email%1, Catherine R.%Counts%xref no email%1, Christopher J.%Drucker%xref no email%1, Peter J.%Kudenchuk%xref no email%1, Thomas D.%Rea%xref no email%1, Mickey S.%Eisenberg%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-03</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ovid Technologies (Wolters Kluwer Health)</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,                      Giuseppe Maria%Sechi%NULL%2,                      Giuseppe Maria%Sechi%NULL%0,                      Claudio%Mare%NULL%1,                      Fabrizio%Canevari%NULL%1,                      Antonella%Brancaglione%NULL%1,                      Roberto%Primi%NULL%1,                      Catherine%Klersy%NULL%1,                      Alessandra%Palo%NULL%2,                      Alessandra%Palo%NULL%0,                      Enrico%Contri%NULL%1,                      Vincenza%Ronchi%NULL%2,                      Vincenza%Ronchi%NULL%0,                      Giorgio%Beretta%NULL%1,                      Francesca%Reali%NULL%1,                      Pierpaolo%Parogni%NULL%1,                      Fabio%Facchin%NULL%1,                      Ugo%Rizzi%NULL%1,                      Daniele%Bussi%NULL%1,                      Simone%Ruggeri%NULL%1,                      Luigi%Oltrona Visconti%NULL%1,                      Simone%Savastano%s.savastano@smatteo.pv.it%1,                      Sara%Compagnoni%NULL%3,                      Sara%Compagnoni%NULL%0,                      Sara%Compagnoni%NULL%0,                      Rosa%Fracchia%NULL%1,                      Antonio%Cuzzoli%NULL%1,                      Andrea%Pagliosa%NULL%1,                      Guido%Matiz%NULL%1,                      Alessandra%Russo%NULL%1,                      Andrea Lorenzo%Vecchi%NULL%1,                      Cecilia%Fantoni%NULL%1,                      Cristian%Fava%NULL%1,                      Cinzia%Franzosi%NULL%1,                      Claudio%Vimercati%NULL%1,                      Dario%Franchi%NULL%1,                      Enrico%Storti%NULL%1,                      Erika%Taravelli%NULL%1,                      Fulvio%Giovenzana%NULL%1,                      Giovanni%Buetto%NULL%1,                      Guido%Garzena%NULL%1,                      Giorgio Antonio%Iotti%NULL%1,                      Guido Francesco%Villa%NULL%1,                      Marco%Botteri%NULL%1,                      Salvatore Ivan%Caico%NULL%1,                      Irene Raimondi%Cominesi%NULL%1,                      Livio%Carnevale%NULL%1,                      Matteo%Caresani%NULL%1,                      Mario%Luppi%NULL%1,                      Maurizio%Migliori%NULL%1,                      Paola%Centineo%NULL%1,                      Paola%Genoni%NULL%1,                      Roberta%Bertona%NULL%1,                      Roberto%De Ponti%NULL%1,                      Riccardo%Osti%NULL%1,                      Stefano%Buratti%NULL%1,                      Gian Battista%Danzi%NULL%1,                      Arianna%Marioni%NULL%1,                      Antonella%De Pirro%NULL%1,                      Simone%Molinari%NULL%1,                      Vito%Sgromo%NULL%1,                      Valeria%Musella%NULL%1,                      Martina%Paglino%NULL%1,                      Francesco%Mojoli%NULL%1,                      Bruno%Lusona%NULL%1,                      Michele%Pagani%NULL%1,                      Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,                      Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,                      Jiming%Liu%jiming@comp.hkbu.edu.hk%1,                      Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,                      Elizabeth A.%Lancet%NULL%1,                      Michael D.%Weiden%NULL%1,                      Mayris P.%Webber%NULL%1,                      Rachel%Zeig-Owens%NULL%1,                      Charles B.%Hall%NULL%1,                      David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,                      Laura%Brischigliaro%NULL%2,                      Laura%Brischigliaro%NULL%0,                      Tommaso%Scquizzato%NULL%2,                      Tommaso%Scquizzato%NULL%0,                      Andrea%Favaretto%NULL%2,                      Andrea%Favaretto%NULL%0,                      Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,                       Giuseppe Maria%Sechi%NULL%2,                       Giuseppe Maria%Sechi%NULL%0,                       Claudio%Mare%NULL%1,                       Fabrizio%Canevari%NULL%1,                       Antonella%Brancaglione%NULL%1,                       Roberto%Primi%NULL%1,                       Catherine%Klersy%NULL%1,                       Alessandra%Palo%NULL%2,                       Alessandra%Palo%NULL%0,                       Enrico%Contri%NULL%1,                       Vincenza%Ronchi%NULL%2,                       Vincenza%Ronchi%NULL%0,                       Giorgio%Beretta%NULL%1,                       Francesca%Reali%NULL%1,                       Pierpaolo%Parogni%NULL%1,                       Fabio%Facchin%NULL%1,                       Ugo%Rizzi%NULL%1,                       Daniele%Bussi%NULL%1,                       Simone%Ruggeri%NULL%1,                       Luigi%Oltrona Visconti%NULL%1,                       Simone%Savastano%s.savastano@smatteo.pv.it%1,                       Sara%Compagnoni%NULL%3,                       Sara%Compagnoni%NULL%0,                       Sara%Compagnoni%NULL%0,                       Rosa%Fracchia%NULL%1,                       Antonio%Cuzzoli%NULL%1,                       Andrea%Pagliosa%NULL%1,                       Guido%Matiz%NULL%1,                       Alessandra%Russo%NULL%1,                       Andrea Lorenzo%Vecchi%NULL%1,                       Cecilia%Fantoni%NULL%1,                       Cristian%Fava%NULL%1,                       Cinzia%Franzosi%NULL%1,                       Claudio%Vimercati%NULL%1,                       Dario%Franchi%NULL%1,                       Enrico%Storti%NULL%1,                       Erika%Taravelli%NULL%1,                       Fulvio%Giovenzana%NULL%1,                       Giovanni%Buetto%NULL%1,                       Guido%Garzena%NULL%1,                       Giorgio Antonio%Iotti%NULL%1,                       Guido Francesco%Villa%NULL%1,                       Marco%Botteri%NULL%1,                       Salvatore Ivan%Caico%NULL%1,                       Irene Raimondi%Cominesi%NULL%1,                       Livio%Carnevale%NULL%1,                       Matteo%Caresani%NULL%1,                       Mario%Luppi%NULL%1,                       Maurizio%Migliori%NULL%1,                       Paola%Centineo%NULL%1,                       Paola%Genoni%NULL%1,                       Roberta%Bertona%NULL%1,                       Roberto%De Ponti%NULL%1,                       Riccardo%Osti%NULL%1,                       Stefano%Buratti%NULL%1,                       Gian Battista%Danzi%NULL%1,                       Arianna%Marioni%NULL%1,                       Antonella%De Pirro%NULL%1,                       Simone%Molinari%NULL%1,                       Vito%Sgromo%NULL%1,                       Valeria%Musella%NULL%1,                       Martina%Paglino%NULL%1,                       Francesco%Mojoli%NULL%1,                       Bruno%Lusona%NULL%1,                       Michele%Pagani%NULL%1,                       Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,                       Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,                       Jiming%Liu%jiming@comp.hkbu.edu.hk%1,                       Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,                       Elizabeth A.%Lancet%NULL%1,                       Michael D.%Weiden%NULL%1,                       Mayris P.%Webber%NULL%1,                       Rachel%Zeig-Owens%NULL%1,                       Charles B.%Hall%NULL%1,                       David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,                       Laura%Brischigliaro%NULL%2,                       Laura%Brischigliaro%NULL%0,                       Tommaso%Scquizzato%NULL%2,                       Tommaso%Scquizzato%NULL%0,                       Andrea%Favaretto%NULL%2,                       Andrea%Favaretto%NULL%0,                       Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,                        Giuseppe Maria%Sechi%NULL%2,                        Giuseppe Maria%Sechi%NULL%0,                        Claudio%Mare%NULL%1,                        Fabrizio%Canevari%NULL%1,                        Antonella%Brancaglione%NULL%1,                        Roberto%Primi%NULL%1,                        Catherine%Klersy%NULL%1,                        Alessandra%Palo%NULL%2,                        Alessandra%Palo%NULL%0,                        Enrico%Contri%NULL%1,                        Vincenza%Ronchi%NULL%2,                        Vincenza%Ronchi%NULL%0,                        Giorgio%Beretta%NULL%1,                        Francesca%Reali%NULL%1,                        Pierpaolo%Parogni%NULL%1,                        Fabio%Facchin%NULL%1,                        Ugo%Rizzi%NULL%1,                        Daniele%Bussi%NULL%1,                        Simone%Ruggeri%NULL%1,                        Luigi%Oltrona Visconti%NULL%1,                        Simone%Savastano%s.savastano@smatteo.pv.it%1,                        Sara%Compagnoni%NULL%3,                        Sara%Compagnoni%NULL%0,                        Sara%Compagnoni%NULL%0,                        Rosa%Fracchia%NULL%1,                        Antonio%Cuzzoli%NULL%1,                        Andrea%Pagliosa%NULL%1,                        Guido%Matiz%NULL%1,                        Alessandra%Russo%NULL%1,                        Andrea Lorenzo%Vecchi%NULL%1,                        Cecilia%Fantoni%NULL%1,                        Cristian%Fava%NULL%1,                        Cinzia%Franzosi%NULL%1,                        Claudio%Vimercati%NULL%1,                        Dario%Franchi%NULL%1,                        Enrico%Storti%NULL%1,                        Erika%Taravelli%NULL%1,                        Fulvio%Giovenzana%NULL%1,                        Giovanni%Buetto%NULL%1,                        Guido%Garzena%NULL%1,                        Giorgio Antonio%Iotti%NULL%1,                        Guido Francesco%Villa%NULL%1,                        Marco%Botteri%NULL%1,                        Salvatore Ivan%Caico%NULL%1,                        Irene Raimondi%Cominesi%NULL%1,                        Livio%Carnevale%NULL%1,                        Matteo%Caresani%NULL%1,                        Mario%Luppi%NULL%1,                        Maurizio%Migliori%NULL%1,                        Paola%Centineo%NULL%1,                        Paola%Genoni%NULL%1,                        Roberta%Bertona%NULL%1,                        Roberto%De Ponti%NULL%1,                        Riccardo%Osti%NULL%1,                        Stefano%Buratti%NULL%1,                        Gian Battista%Danzi%NULL%1,                        Arianna%Marioni%NULL%1,                        Antonella%De Pirro%NULL%1,                        Simone%Molinari%NULL%1,                        Vito%Sgromo%NULL%1,                        Valeria%Musella%NULL%1,                        Martina%Paglino%NULL%1,                        Francesco%Mojoli%NULL%1,                        Bruno%Lusona%NULL%1,                        Michele%Pagani%NULL%1,                        Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,                        Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,                        Jiming%Liu%jiming@comp.hkbu.edu.hk%1,                        Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,                        Elizabeth A.%Lancet%NULL%1,                        Michael D.%Weiden%NULL%1,                        Mayris P.%Webber%NULL%1,                        Rachel%Zeig-Owens%NULL%1,                        Charles B.%Hall%NULL%1,                        David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,                        Laura%Brischigliaro%NULL%2,                        Laura%Brischigliaro%NULL%0,                        Tommaso%Scquizzato%NULL%2,                        Tommaso%Scquizzato%NULL%0,                        Andrea%Favaretto%NULL%2,                        Andrea%Favaretto%NULL%0,                        Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,                         Giuseppe Maria%Sechi%NULL%2,                         Giuseppe Maria%Sechi%NULL%0,                         Claudio%Mare%NULL%1,                         Fabrizio%Canevari%NULL%1,                         Antonella%Brancaglione%NULL%1,                         Roberto%Primi%NULL%1,                         Catherine%Klersy%NULL%1,                         Alessandra%Palo%NULL%2,                         Alessandra%Palo%NULL%0,                         Enrico%Contri%NULL%1,                         Vincenza%Ronchi%NULL%2,                         Vincenza%Ronchi%NULL%0,                         Giorgio%Beretta%NULL%1,                         Francesca%Reali%NULL%1,                         Pierpaolo%Parogni%NULL%1,                         Fabio%Facchin%NULL%1,                         Ugo%Rizzi%NULL%1,                         Daniele%Bussi%NULL%1,                         Simone%Ruggeri%NULL%1,                         Luigi%Oltrona Visconti%NULL%1,                         Simone%Savastano%s.savastano@smatteo.pv.it%1,                         Sara%Compagnoni%NULL%3,                         Sara%Compagnoni%NULL%0,                         Sara%Compagnoni%NULL%0,                         Rosa%Fracchia%NULL%1,                         Antonio%Cuzzoli%NULL%1,                         Andrea%Pagliosa%NULL%1,                         Guido%Matiz%NULL%1,                         Alessandra%Russo%NULL%1,                         Andrea Lorenzo%Vecchi%NULL%1,                         Cecilia%Fantoni%NULL%1,                         Cristian%Fava%NULL%1,                         Cinzia%Franzosi%NULL%1,                         Claudio%Vimercati%NULL%1,                         Dario%Franchi%NULL%1,                         Enrico%Storti%NULL%1,                         Erika%Taravelli%NULL%1,                         Fulvio%Giovenzana%NULL%1,                         Giovanni%Buetto%NULL%1,                         Guido%Garzena%NULL%1,                         Giorgio Antonio%Iotti%NULL%1,                         Guido Francesco%Villa%NULL%1,                         Marco%Botteri%NULL%1,                         Salvatore Ivan%Caico%NULL%1,                         Irene Raimondi%Cominesi%NULL%1,                         Livio%Carnevale%NULL%1,                         Matteo%Caresani%NULL%1,                         Mario%Luppi%NULL%1,                         Maurizio%Migliori%NULL%1,                         Paola%Centineo%NULL%1,                         Paola%Genoni%NULL%1,                         Roberta%Bertona%NULL%1,                         Roberto%De Ponti%NULL%1,                         Riccardo%Osti%NULL%1,                         Stefano%Buratti%NULL%1,                         Gian Battista%Danzi%NULL%1,                         Arianna%Marioni%NULL%1,                         Antonella%De Pirro%NULL%1,                         Simone%Molinari%NULL%1,                         Vito%Sgromo%NULL%1,                         Valeria%Musella%NULL%1,                         Martina%Paglino%NULL%1,                         Francesco%Mojoli%NULL%1,                         Bruno%Lusona%NULL%1,                         Michele%Pagani%NULL%1,                         Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,                         Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,                         Jiming%Liu%jiming@comp.hkbu.edu.hk%1,                         Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,                         Elizabeth A.%Lancet%NULL%1,                         Michael D.%Weiden%NULL%1,                         Mayris P.%Webber%NULL%1,                         Rachel%Zeig-Owens%NULL%1,                         Charles B.%Hall%NULL%1,                         David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,                         Laura%Brischigliaro%NULL%2,                         Laura%Brischigliaro%NULL%0,                         Tommaso%Scquizzato%NULL%2,                         Tommaso%Scquizzato%NULL%0,                         Andrea%Favaretto%NULL%2,                         Andrea%Favaretto%NULL%0,                         Andrea%Spagna%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -769,6 +841,9 @@
       <c r="I1" t="s">
         <v>47</v>
       </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -784,7 +859,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -797,6 +872,9 @@
       </c>
       <c r="I2" t="s">
         <v>126</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -813,7 +891,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -826,6 +904,9 @@
       </c>
       <c r="I3" t="s">
         <v>128</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -842,7 +923,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -855,6 +936,9 @@
       </c>
       <c r="I4" t="s">
         <v>126</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -871,7 +955,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -884,6 +968,9 @@
       </c>
       <c r="I5" t="s">
         <v>131</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -900,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -909,10 +996,13 @@
         <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/100.xlsx
+++ b/Covid_19_Dataset_and_References/References/100.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="171">
   <si>
     <t>Doi</t>
   </si>
@@ -533,6 +533,30 @@
   </si>
   <si>
     <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,                         Laura%Brischigliaro%NULL%2,                         Laura%Brischigliaro%NULL%0,                         Tommaso%Scquizzato%NULL%2,                         Tommaso%Scquizzato%NULL%0,                         Andrea%Favaretto%NULL%2,                         Andrea%Favaretto%NULL%0,                         Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,                          Giuseppe Maria%Sechi%NULL%2,                          Giuseppe Maria%Sechi%NULL%0,                          Claudio%Mare%NULL%1,                          Fabrizio%Canevari%NULL%1,                          Antonella%Brancaglione%NULL%1,                          Roberto%Primi%NULL%1,                          Catherine%Klersy%NULL%1,                          Alessandra%Palo%NULL%2,                          Alessandra%Palo%NULL%0,                          Enrico%Contri%NULL%1,                          Vincenza%Ronchi%NULL%2,                          Vincenza%Ronchi%NULL%0,                          Giorgio%Beretta%NULL%1,                          Francesca%Reali%NULL%1,                          Pierpaolo%Parogni%NULL%1,                          Fabio%Facchin%NULL%1,                          Ugo%Rizzi%NULL%1,                          Daniele%Bussi%NULL%1,                          Simone%Ruggeri%NULL%1,                          Luigi%Oltrona Visconti%NULL%1,                          Simone%Savastano%s.savastano@smatteo.pv.it%1,                          Sara%Compagnoni%NULL%3,                          Sara%Compagnoni%NULL%0,                          Sara%Compagnoni%NULL%0,                          Rosa%Fracchia%NULL%1,                          Antonio%Cuzzoli%NULL%1,                          Andrea%Pagliosa%NULL%1,                          Guido%Matiz%NULL%1,                          Alessandra%Russo%NULL%1,                          Andrea Lorenzo%Vecchi%NULL%1,                          Cecilia%Fantoni%NULL%1,                          Cristian%Fava%NULL%1,                          Cinzia%Franzosi%NULL%1,                          Claudio%Vimercati%NULL%1,                          Dario%Franchi%NULL%1,                          Enrico%Storti%NULL%1,                          Erika%Taravelli%NULL%1,                          Fulvio%Giovenzana%NULL%1,                          Giovanni%Buetto%NULL%1,                          Guido%Garzena%NULL%1,                          Giorgio Antonio%Iotti%NULL%1,                          Guido Francesco%Villa%NULL%1,                          Marco%Botteri%NULL%1,                          Salvatore Ivan%Caico%NULL%1,                          Irene Raimondi%Cominesi%NULL%1,                          Livio%Carnevale%NULL%1,                          Matteo%Caresani%NULL%1,                          Mario%Luppi%NULL%1,                          Maurizio%Migliori%NULL%1,                          Paola%Centineo%NULL%1,                          Paola%Genoni%NULL%1,                          Roberta%Bertona%NULL%1,                          Roberto%De Ponti%NULL%1,                          Riccardo%Osti%NULL%1,                          Stefano%Buratti%NULL%1,                          Gian Battista%Danzi%NULL%1,                          Arianna%Marioni%NULL%1,                          Antonella%De Pirro%NULL%1,                          Simone%Molinari%NULL%1,                          Vito%Sgromo%NULL%1,                          Valeria%Musella%NULL%1,                          Martina%Paglino%NULL%1,                          Francesco%Mojoli%NULL%1,                          Bruno%Lusona%NULL%1,                          Michele%Pagani%NULL%1,                          Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,                          Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,                          Jiming%Liu%jiming@comp.hkbu.edu.hk%1,                          Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,                          Elizabeth A.%Lancet%NULL%1,                          Michael D.%Weiden%NULL%1,                          Mayris P.%Webber%NULL%1,                          Rachel%Zeig-Owens%NULL%1,                          Charles B.%Hall%NULL%1,                          David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,                          Laura%Brischigliaro%NULL%2,                          Laura%Brischigliaro%NULL%0,                          Tommaso%Scquizzato%NULL%2,                          Tommaso%Scquizzato%NULL%0,                          Andrea%Favaretto%NULL%2,                          Andrea%Favaretto%NULL%0,                          Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,                           Giuseppe Maria%Sechi%NULL%2,                           Giuseppe Maria%Sechi%NULL%0,                           Claudio%Mare%NULL%1,                           Fabrizio%Canevari%NULL%1,                           Antonella%Brancaglione%NULL%1,                           Roberto%Primi%NULL%1,                           Catherine%Klersy%NULL%1,                           Alessandra%Palo%NULL%2,                           Alessandra%Palo%NULL%0,                           Enrico%Contri%NULL%1,                           Vincenza%Ronchi%NULL%2,                           Vincenza%Ronchi%NULL%0,                           Giorgio%Beretta%NULL%1,                           Francesca%Reali%NULL%1,                           Pierpaolo%Parogni%NULL%1,                           Fabio%Facchin%NULL%1,                           Ugo%Rizzi%NULL%1,                           Daniele%Bussi%NULL%1,                           Simone%Ruggeri%NULL%1,                           Luigi%Oltrona Visconti%NULL%1,                           Simone%Savastano%s.savastano@smatteo.pv.it%1,                           Sara%Compagnoni%NULL%3,                           Sara%Compagnoni%NULL%0,                           Sara%Compagnoni%NULL%0,                           Rosa%Fracchia%NULL%1,                           Antonio%Cuzzoli%NULL%1,                           Andrea%Pagliosa%NULL%1,                           Guido%Matiz%NULL%1,                           Alessandra%Russo%NULL%1,                           Andrea Lorenzo%Vecchi%NULL%1,                           Cecilia%Fantoni%NULL%1,                           Cristian%Fava%NULL%1,                           Cinzia%Franzosi%NULL%1,                           Claudio%Vimercati%NULL%1,                           Dario%Franchi%NULL%1,                           Enrico%Storti%NULL%1,                           Erika%Taravelli%NULL%1,                           Fulvio%Giovenzana%NULL%1,                           Giovanni%Buetto%NULL%1,                           Guido%Garzena%NULL%1,                           Giorgio Antonio%Iotti%NULL%1,                           Guido Francesco%Villa%NULL%1,                           Marco%Botteri%NULL%1,                           Salvatore Ivan%Caico%NULL%1,                           Irene Raimondi%Cominesi%NULL%1,                           Livio%Carnevale%NULL%1,                           Matteo%Caresani%NULL%1,                           Mario%Luppi%NULL%1,                           Maurizio%Migliori%NULL%1,                           Paola%Centineo%NULL%1,                           Paola%Genoni%NULL%1,                           Roberta%Bertona%NULL%1,                           Roberto%De Ponti%NULL%1,                           Riccardo%Osti%NULL%1,                           Stefano%Buratti%NULL%1,                           Gian Battista%Danzi%NULL%1,                           Arianna%Marioni%NULL%1,                           Antonella%De Pirro%NULL%1,                           Simone%Molinari%NULL%1,                           Vito%Sgromo%NULL%1,                           Valeria%Musella%NULL%1,                           Martina%Paglino%NULL%1,                           Francesco%Mojoli%NULL%1,                           Bruno%Lusona%NULL%1,                           Michele%Pagani%NULL%1,                           Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,                           Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,                           Jiming%Liu%jiming@comp.hkbu.edu.hk%1,                           Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,                           Elizabeth A.%Lancet%NULL%1,                           Michael D.%Weiden%NULL%1,                           Mayris P.%Webber%NULL%1,                           Rachel%Zeig-Owens%NULL%1,                           Charles B.%Hall%NULL%1,                           David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,                           Laura%Brischigliaro%NULL%2,                           Laura%Brischigliaro%NULL%0,                           Tommaso%Scquizzato%NULL%2,                           Tommaso%Scquizzato%NULL%0,                           Andrea%Favaretto%NULL%2,                           Andrea%Favaretto%NULL%0,                           Andrea%Spagna%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -859,7 +883,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -891,7 +915,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -923,7 +947,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -955,7 +979,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -987,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
